--- a/artfynd/A 21083-2023.xlsx
+++ b/artfynd/A 21083-2023.xlsx
@@ -3899,10 +3899,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111285147</v>
+        <v>111285303</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3911,35 +3911,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3947,10 +3951,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>462998.224304053</v>
+        <v>463117.0211132796</v>
       </c>
       <c r="R29" t="n">
-        <v>6589870.859991242</v>
+        <v>6589724.244780275</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4001,6 +4005,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4136,10 +4141,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111285077</v>
+        <v>111285105</v>
       </c>
       <c r="B31" t="n">
-        <v>94134</v>
+        <v>93067</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4148,25 +4153,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53</v>
+        <v>2810</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4180,10 +4185,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>463029.9217482677</v>
+        <v>463000.5369220126</v>
       </c>
       <c r="R31" t="n">
-        <v>6589882.246201174</v>
+        <v>6589846.934736228</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4487,10 +4492,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111285105</v>
+        <v>111285077</v>
       </c>
       <c r="B34" t="n">
-        <v>93067</v>
+        <v>94134</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4499,25 +4504,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2810</v>
+        <v>53</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4531,10 +4536,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>463000.5369220126</v>
+        <v>463029.9217482677</v>
       </c>
       <c r="R34" t="n">
-        <v>6589846.934736228</v>
+        <v>6589882.246201174</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4604,10 +4609,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111285303</v>
+        <v>111285147</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4616,39 +4621,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4656,10 +4657,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>463117.0211132796</v>
+        <v>462998.224304053</v>
       </c>
       <c r="R35" t="n">
-        <v>6589724.244780275</v>
+        <v>6589870.859991242</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4710,7 +4711,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 21083-2023.xlsx
+++ b/artfynd/A 21083-2023.xlsx
@@ -3899,10 +3899,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111285303</v>
+        <v>111285339</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3911,37 +3911,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -3951,10 +3943,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>463117.0211132796</v>
+        <v>463009.2170549285</v>
       </c>
       <c r="R29" t="n">
-        <v>6589724.244780275</v>
+        <v>6589537.119647364</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4024,7 +4016,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111285339</v>
+        <v>111285077</v>
       </c>
       <c r="B30" t="n">
         <v>94134</v>
@@ -4068,10 +4060,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>463009.2170549285</v>
+        <v>463029.9217482677</v>
       </c>
       <c r="R30" t="n">
-        <v>6589537.119647364</v>
+        <v>6589882.246201174</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4141,10 +4133,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111285105</v>
+        <v>111285147</v>
       </c>
       <c r="B31" t="n">
-        <v>93067</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4153,31 +4145,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2810</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4185,10 +4181,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>463000.5369220126</v>
+        <v>462998.224304053</v>
       </c>
       <c r="R31" t="n">
-        <v>6589846.934736228</v>
+        <v>6589870.859991242</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4239,7 +4235,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4258,10 +4253,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111285012</v>
+        <v>111285105</v>
       </c>
       <c r="B32" t="n">
-        <v>4711</v>
+        <v>93067</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4274,28 +4269,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100299</v>
+        <v>2810</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4303,10 +4297,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>463070.5957312917</v>
+        <v>463000.5369220126</v>
       </c>
       <c r="R32" t="n">
-        <v>6589821.837045968</v>
+        <v>6589846.934736228</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4338,7 +4332,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4348,7 +4342,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4492,10 +4486,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111285077</v>
+        <v>111285303</v>
       </c>
       <c r="B34" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4504,29 +4498,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -4536,10 +4538,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>463029.9217482677</v>
+        <v>463117.0211132796</v>
       </c>
       <c r="R34" t="n">
-        <v>6589882.246201174</v>
+        <v>6589724.244780275</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4609,10 +4611,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111285147</v>
+        <v>111285012</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>4711</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4621,35 +4623,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>100299</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4657,10 +4656,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>462998.224304053</v>
+        <v>463070.5957312917</v>
       </c>
       <c r="R35" t="n">
-        <v>6589870.859991242</v>
+        <v>6589821.837045968</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4692,7 +4691,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4702,7 +4701,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4711,6 +4710,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 21083-2023.xlsx
+++ b/artfynd/A 21083-2023.xlsx
@@ -3899,10 +3899,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111285339</v>
+        <v>111285147</v>
       </c>
       <c r="B29" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3915,27 +3915,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3943,10 +3947,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>463009.2170549285</v>
+        <v>462998.224304053</v>
       </c>
       <c r="R29" t="n">
-        <v>6589537.119647364</v>
+        <v>6589870.859991242</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3997,7 +4001,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4016,10 +4019,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111285077</v>
+        <v>111285012</v>
       </c>
       <c r="B30" t="n">
-        <v>94134</v>
+        <v>4711</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4028,31 +4031,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>100299</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4060,10 +4064,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>463029.9217482677</v>
+        <v>463070.5957312917</v>
       </c>
       <c r="R30" t="n">
-        <v>6589882.246201174</v>
+        <v>6589821.837045968</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4095,7 +4099,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4105,7 +4109,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4133,10 +4137,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111285147</v>
+        <v>111285105</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>93067</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4145,35 +4149,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>2810</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>462998.224304053</v>
+        <v>463000.5369220126</v>
       </c>
       <c r="R31" t="n">
-        <v>6589870.859991242</v>
+        <v>6589846.934736228</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4235,6 +4235,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4253,10 +4254,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111285105</v>
+        <v>111285339</v>
       </c>
       <c r="B32" t="n">
-        <v>93067</v>
+        <v>94134</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4265,25 +4266,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2810</v>
+        <v>53</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4297,10 +4298,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>463000.5369220126</v>
+        <v>463009.2170549285</v>
       </c>
       <c r="R32" t="n">
-        <v>6589846.934736228</v>
+        <v>6589537.119647364</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4370,10 +4371,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111285217</v>
+        <v>111285077</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4382,30 +4383,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4413,10 +4415,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>463010.1200007446</v>
+        <v>463029.9217482677</v>
       </c>
       <c r="R33" t="n">
-        <v>6589889.051595816</v>
+        <v>6589882.246201174</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4486,10 +4488,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111285303</v>
+        <v>111285217</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4498,39 +4500,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4538,10 +4531,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>463117.0211132796</v>
+        <v>463010.1200007446</v>
       </c>
       <c r="R34" t="n">
-        <v>6589724.244780275</v>
+        <v>6589889.051595816</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4611,10 +4604,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111285012</v>
+        <v>111285303</v>
       </c>
       <c r="B35" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4623,32 +4616,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4656,10 +4656,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>463070.5957312917</v>
+        <v>463117.0211132796</v>
       </c>
       <c r="R35" t="n">
-        <v>6589821.837045968</v>
+        <v>6589724.244780275</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
